--- a/data/05_input/zm.bs13a.xlsx
+++ b/data/05_input/zm.bs13a.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/17A6DE90-B804-4F43-833E-7AB57CD591F2/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/06_local_list_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/141F630A-5C14-4A07-BBFC-279FBBD32634/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10094D3-1040-FC49-B780-4AA3BA7945C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDB0AC0-AB2F-EE4C-B5E3-94856C34E13F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18760" yWindow="14360" windowWidth="15740" windowHeight="12200" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="10940" yWindow="4760" windowWidth="15740" windowHeight="15560" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="100">
   <si>
     <t>SampleID</t>
   </si>
@@ -63,265 +63,268 @@
     <t>B73</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130107_SN1073_0307_AD1M73ACXX/Project_Springer_Project_014/B73_ACAGTG_L007_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130107_SN1073_0307_AD1M73ACXX/Project_Springer_Project_014/B73_ACAGTG_L007_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s02</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130107_SN1073_0307_AD1M73ACXX/Project_Springer_Project_014/B73_ACAGTG_L008_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130107_SN1073_0307_AD1M73ACXX/Project_Springer_Project_014/B73_ACAGTG_L008_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s03</t>
   </si>
   <si>
     <t>Mo17</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130107_SN1073_0307_AD1M73ACXX/Project_Springer_Project_014/Mo17_GCCAAT_L007_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130107_SN1073_0307_AD1M73ACXX/Project_Springer_Project_014/Mo17_GCCAAT_L007_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s04</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130107_SN1073_0307_AD1M73ACXX/Project_Springer_Project_014/Mo17_GCCAAT_L008_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130107_SN1073_0307_AD1M73ACXX/Project_Springer_Project_014/Mo17_GCCAAT_L008_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s05</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130220_SN1073_0313_BD1WL4ACXX/Project_Springer_Project_014/B73_ACAGTG_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130220_SN1073_0313_BD1WL4ACXX/Project_Springer_Project_014/B73_ACAGTG_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s06</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130220_SN1073_0313_BD1WL4ACXX/Project_Springer_Project_014/B73_ACAGTG_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130220_SN1073_0313_BD1WL4ACXX/Project_Springer_Project_014/B73_ACAGTG_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s07</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130220_SN1073_0313_BD1WL4ACXX/Project_Springer_Project_014/Mo17_GCCAAT_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130220_SN1073_0313_BD1WL4ACXX/Project_Springer_Project_014/Mo17_GCCAAT_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s08</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130220_SN1073_0313_BD1WL4ACXX/Project_Springer_Project_014/Mo17_GCCAAT_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130220_SN1073_0313_BD1WL4ACXX/Project_Springer_Project_014/Mo17_GCCAAT_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s09</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130417_SN1073_0320_AC221LACXX/Project_Springer_Project_014/B73_ACAGTG_L001_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130417_SN1073_0320_AC221LACXX/Project_Springer_Project_014/B73_ACAGTG_L001_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s10</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130417_SN1073_0320_AC221LACXX/Project_Springer_Project_014/Mo17_GCCAAT_L001_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130417_SN1073_0320_AC221LACXX/Project_Springer_Project_014/Mo17_GCCAAT_L001_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s11</t>
   </si>
   <si>
     <t>CML322</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130726_SN1073_0336_AD2AE7ACXX/Project_Springer_Project_017/CML322_CACGAT_L004_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130726_SN1073_0336_AD2AE7ACXX/Project_Springer_Project_017/CML322_CACGAT_L004_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s12</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130726_SN1073_0336_AD2AE7ACXX/Project_Springer_Project_017/CML322_CACGAT_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130726_SN1073_0336_AD2AE7ACXX/Project_Springer_Project_017/CML322_CACGAT_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s13</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130726_SN1073_0336_AD2AE7ACXX/Project_Springer_Project_017/CML322_CACGAT_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130726_SN1073_0336_AD2AE7ACXX/Project_Springer_Project_017/CML322_CACGAT_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s14</t>
   </si>
   <si>
     <t>Oh43</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130726_SN1073_0336_AD2AE7ACXX/Project_Springer_Project_017/Oh43_GGTAGC_L004_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130726_SN1073_0336_AD2AE7ACXX/Project_Springer_Project_017/Oh43_GGTAGC_L004_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s15</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130726_SN1073_0336_AD2AE7ACXX/Project_Springer_Project_017/Oh43_GGTAGC_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130726_SN1073_0336_AD2AE7ACXX/Project_Springer_Project_017/Oh43_GGTAGC_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s16</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130726_SN1073_0336_AD2AE7ACXX/Project_Springer_Project_017/Oh43_GGTAGC_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130726_SN1073_0336_AD2AE7ACXX/Project_Springer_Project_017/Oh43_GGTAGC_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s17</t>
   </si>
   <si>
     <t>Tx303</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130726_SN1073_0336_AD2AE7ACXX/Project_Springer_Project_017/Tx303_GTGCTA_L004_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130726_SN1073_0336_AD2AE7ACXX/Project_Springer_Project_017/Tx303_GTGCTA_L004_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s18</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130726_SN1073_0336_AD2AE7ACXX/Project_Springer_Project_017/Tx303_GTGCTA_L005_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130726_SN1073_0336_AD2AE7ACXX/Project_Springer_Project_017/Tx303_GTGCTA_L005_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s19</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130726_SN1073_0336_AD2AE7ACXX/Project_Springer_Project_017/Tx303_GTGCTA_L006_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130726_SN1073_0336_AD2AE7ACXX/Project_Springer_Project_017/Tx303_GTGCTA_L006_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s20</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130905_SN1073_0343_AC2U63ACXX/Project_Springer_Project_017/CML322_CACGAT_L001_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130905_SN1073_0343_AC2U63ACXX/Project_Springer_Project_017/CML322_CACGAT_L001_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s21</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130905_SN1073_0343_AC2U63ACXX/Project_Springer_Project_017/CML322_CACGAT_L002_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130905_SN1073_0343_AC2U63ACXX/Project_Springer_Project_017/CML322_CACGAT_L002_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s22</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130905_SN1073_0343_AC2U63ACXX/Project_Springer_Project_017/CML322_CACGAT_L003_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130905_SN1073_0343_AC2U63ACXX/Project_Springer_Project_017/CML322_CACGAT_L003_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s23</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130905_SN1073_0343_AC2U63ACXX/Project_Springer_Project_017/Oh43_GGTAGC_L001_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130905_SN1073_0343_AC2U63ACXX/Project_Springer_Project_017/Oh43_GGTAGC_L001_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s24</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130905_SN1073_0343_AC2U63ACXX/Project_Springer_Project_017/Oh43_GGTAGC_L002_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130905_SN1073_0343_AC2U63ACXX/Project_Springer_Project_017/Oh43_GGTAGC_L002_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s25</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130905_SN1073_0343_AC2U63ACXX/Project_Springer_Project_017/Oh43_GGTAGC_L003_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130905_SN1073_0343_AC2U63ACXX/Project_Springer_Project_017/Oh43_GGTAGC_L003_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s26</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130905_SN1073_0343_AC2U63ACXX/Project_Springer_Project_017/Tx303_GTGCTA_L001_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130905_SN1073_0343_AC2U63ACXX/Project_Springer_Project_017/Tx303_GTGCTA_L001_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s27</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130905_SN1073_0343_AC2U63ACXX/Project_Springer_Project_017/Tx303_GTGCTA_L002_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130905_SN1073_0343_AC2U63ACXX/Project_Springer_Project_017/Tx303_GTGCTA_L002_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s28</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/130905_SN1073_0343_AC2U63ACXX/Project_Springer_Project_017/Tx303_GTGCTA_L003_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/130905_SN1073_0343_AC2U63ACXX/Project_Springer_Project_017/Tx303_GTGCTA_L003_R2_001.fastq</t>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>130107_SN1073_0307_AD1M73ACXX/B73_ACAGTG_L007_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130107_SN1073_0307_AD1M73ACXX/B73_ACAGTG_L007_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130107_SN1073_0307_AD1M73ACXX/B73_ACAGTG_L008_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130107_SN1073_0307_AD1M73ACXX/B73_ACAGTG_L008_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130107_SN1073_0307_AD1M73ACXX/Mo17_GCCAAT_L007_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130107_SN1073_0307_AD1M73ACXX/Mo17_GCCAAT_L007_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130107_SN1073_0307_AD1M73ACXX/Mo17_GCCAAT_L008_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130107_SN1073_0307_AD1M73ACXX/Mo17_GCCAAT_L008_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130220_SN1073_0313_BD1WL4ACXX/B73_ACAGTG_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130220_SN1073_0313_BD1WL4ACXX/B73_ACAGTG_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130220_SN1073_0313_BD1WL4ACXX/B73_ACAGTG_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130220_SN1073_0313_BD1WL4ACXX/B73_ACAGTG_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130220_SN1073_0313_BD1WL4ACXX/Mo17_GCCAAT_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130220_SN1073_0313_BD1WL4ACXX/Mo17_GCCAAT_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130220_SN1073_0313_BD1WL4ACXX/Mo17_GCCAAT_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130220_SN1073_0313_BD1WL4ACXX/Mo17_GCCAAT_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130417_SN1073_0320_AC221LACXX/B73_ACAGTG_L001_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130417_SN1073_0320_AC221LACXX/B73_ACAGTG_L001_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130417_SN1073_0320_AC221LACXX/Mo17_GCCAAT_L001_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130417_SN1073_0320_AC221LACXX/Mo17_GCCAAT_L001_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130726_SN1073_0336_AD2AE7ACXX/CML322_CACGAT_L004_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130726_SN1073_0336_AD2AE7ACXX/CML322_CACGAT_L004_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130726_SN1073_0336_AD2AE7ACXX/CML322_CACGAT_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130726_SN1073_0336_AD2AE7ACXX/CML322_CACGAT_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130726_SN1073_0336_AD2AE7ACXX/CML322_CACGAT_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130726_SN1073_0336_AD2AE7ACXX/CML322_CACGAT_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130726_SN1073_0336_AD2AE7ACXX/Oh43_GGTAGC_L004_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130726_SN1073_0336_AD2AE7ACXX/Oh43_GGTAGC_L004_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130726_SN1073_0336_AD2AE7ACXX/Oh43_GGTAGC_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130726_SN1073_0336_AD2AE7ACXX/Oh43_GGTAGC_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130726_SN1073_0336_AD2AE7ACXX/Oh43_GGTAGC_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130726_SN1073_0336_AD2AE7ACXX/Oh43_GGTAGC_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130726_SN1073_0336_AD2AE7ACXX/Tx303_GTGCTA_L004_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130726_SN1073_0336_AD2AE7ACXX/Tx303_GTGCTA_L004_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130726_SN1073_0336_AD2AE7ACXX/Tx303_GTGCTA_L005_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130726_SN1073_0336_AD2AE7ACXX/Tx303_GTGCTA_L005_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130726_SN1073_0336_AD2AE7ACXX/Tx303_GTGCTA_L006_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130726_SN1073_0336_AD2AE7ACXX/Tx303_GTGCTA_L006_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130905_SN1073_0343_AC2U63ACXX/CML322_CACGAT_L001_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130905_SN1073_0343_AC2U63ACXX/CML322_CACGAT_L001_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130905_SN1073_0343_AC2U63ACXX/CML322_CACGAT_L002_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130905_SN1073_0343_AC2U63ACXX/CML322_CACGAT_L002_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130905_SN1073_0343_AC2U63ACXX/CML322_CACGAT_L003_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130905_SN1073_0343_AC2U63ACXX/CML322_CACGAT_L003_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130905_SN1073_0343_AC2U63ACXX/Oh43_GGTAGC_L001_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130905_SN1073_0343_AC2U63ACXX/Oh43_GGTAGC_L001_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130905_SN1073_0343_AC2U63ACXX/Oh43_GGTAGC_L002_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130905_SN1073_0343_AC2U63ACXX/Oh43_GGTAGC_L002_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130905_SN1073_0343_AC2U63ACXX/Oh43_GGTAGC_L003_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130905_SN1073_0343_AC2U63ACXX/Oh43_GGTAGC_L003_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130905_SN1073_0343_AC2U63ACXX/Tx303_GTGCTA_L001_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130905_SN1073_0343_AC2U63ACXX/Tx303_GTGCTA_L001_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130905_SN1073_0343_AC2U63ACXX/Tx303_GTGCTA_L002_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130905_SN1073_0343_AC2U63ACXX/Tx303_GTGCTA_L002_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>130905_SN1073_0343_AC2U63ACXX/Tx303_GTGCTA_L003_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>130905_SN1073_0343_AC2U63ACXX/Tx303_GTGCTA_L003_R2_001.fastq</t>
   </si>
 </sst>
 </file>
@@ -677,7 +680,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -729,19 +732,19 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -752,65 +755,65 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="F4" t="s">
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -821,19 +824,19 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="s">
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -844,65 +847,65 @@
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="F7" t="s">
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
+      <c r="F9" t="s">
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -913,19 +916,19 @@
       <c r="E10">
         <v>5</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
+      <c r="F10" t="s">
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -936,428 +939,428 @@
       <c r="E11">
         <v>6</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
+      <c r="F11" t="s">
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
+      <c r="F12" t="s">
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
+      <c r="F13" t="s">
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
+      <c r="F14" t="s">
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
+      <c r="F15" t="s">
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
+      <c r="F16" t="s">
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
+      <c r="F17" t="s">
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
+      <c r="F18" t="s">
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
+      <c r="F19" t="s">
+        <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
+      <c r="F20" t="s">
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
+      <c r="F21" t="s">
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>5</v>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
+      <c r="F22" t="s">
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>6</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
+      <c r="F23" t="s">
+        <v>43</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I23" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>4</v>
       </c>
-      <c r="F24" t="b">
-        <v>1</v>
+      <c r="F24" t="s">
+        <v>43</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>5</v>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
+      <c r="F25" t="s">
+        <v>43</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I25" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>6</v>
       </c>
-      <c r="F26" t="b">
-        <v>1</v>
+      <c r="F26" t="s">
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I26" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
-      <c r="F27" t="b">
-        <v>1</v>
+      <c r="F27" t="s">
+        <v>43</v>
       </c>
       <c r="H27" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E28">
         <v>5</v>
       </c>
-      <c r="F28" t="b">
-        <v>1</v>
+      <c r="F28" t="s">
+        <v>43</v>
       </c>
       <c r="H28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" t="b">
-        <v>1</v>
+      <c r="F29" t="s">
+        <v>43</v>
       </c>
       <c r="H29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
